--- a/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.22.20.xlsx
+++ b/s1cDNASample/s1CDNASample_J.PLAGGENBERG_08.22.20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="16">
   <si>
     <t xml:space="preserve">rnaDate</t>
   </si>
@@ -55,10 +55,10 @@
     <t xml:space="preserve">08.21.20</t>
   </si>
   <si>
+    <t xml:space="preserve">J.PLAGGENBERG</t>
+  </si>
+  <si>
     <t xml:space="preserve">08.22.20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
     <t xml:space="preserve">E7420L</t>
@@ -179,7 +179,7 @@
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,18 +219,21 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="0" t="n">
         <v>1</v>
@@ -250,16 +253,16 @@
         <v>10</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>2</v>
@@ -280,16 +283,16 @@
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>3</v>
@@ -310,16 +313,16 @@
         <v>10</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>4</v>
@@ -340,16 +343,16 @@
         <v>10</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>5</v>
@@ -370,16 +373,16 @@
         <v>10</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>6</v>
@@ -400,16 +403,16 @@
         <v>10</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F8" s="0" t="n">
         <v>7</v>
@@ -430,16 +433,16 @@
         <v>10</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>8</v>
@@ -460,16 +463,16 @@
         <v>10</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F10" s="0" t="n">
         <v>9</v>
@@ -490,16 +493,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>10</v>
@@ -520,16 +523,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F12" s="0" t="n">
         <v>11</v>
@@ -550,16 +553,16 @@
         <v>10</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F13" s="0" t="n">
         <v>12</v>
@@ -580,16 +583,16 @@
         <v>10</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>13</v>
@@ -610,16 +613,16 @@
         <v>10</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F15" s="0" t="n">
         <v>14</v>
@@ -640,16 +643,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>15</v>
@@ -670,16 +673,16 @@
         <v>10</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>16</v>
@@ -700,16 +703,16 @@
         <v>10</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>17</v>
@@ -730,16 +733,16 @@
         <v>10</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>18</v>
@@ -760,16 +763,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F20" s="0" t="n">
         <v>19</v>
@@ -790,16 +793,16 @@
         <v>10</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F21" s="0" t="n">
         <v>20</v>
@@ -820,16 +823,16 @@
         <v>10</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F22" s="0" t="n">
         <v>21</v>
@@ -850,16 +853,16 @@
         <v>10</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F23" s="0" t="n">
         <v>22</v>
@@ -880,16 +883,16 @@
         <v>10</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F24" s="0" t="n">
         <v>23</v>
@@ -910,16 +913,16 @@
         <v>10</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F25" s="0" t="n">
         <v>24</v>
